--- a/public/TESTS/Право цивільна і кримінальна спеціалізація.xlsx
+++ b/public/TESTS/Право цивільна і кримінальна спеціалізація.xlsx
@@ -16244,13 +16244,13 @@
     <t>Ініціювання проведення слідчих (розшукових) дій, негласних слідчих (розшукових) дій та інших процесуальних дій, які здатні забезпечити подання суду належних і допустимих доказів</t>
   </si>
   <si>
-    <t>ініціювання проведення слідчих дій без участі адвоката</t>
-  </si>
-  <si>
-    <t>виконання лише оперативно-розшукових заходів без судового дозволу</t>
-  </si>
-  <si>
-    <t>збирання доказів шляхом опитування свідків без протоколу</t>
+    <t>Ініціювання проведення адміністративних дій, негласних операцій та інших процесуальних рішень, які можуть забезпечити подання суду належних і переконливих доказів</t>
+  </si>
+  <si>
+    <t>Ініціювання проведення слідчих (розшукових) дій, розголошених слідчих (розшукових) дій та інших адміністративних дій, які здатні забезпечити подання суду належних і допустимих доказів</t>
+  </si>
+  <si>
+    <t>Ініціювання проведення слідчих (розшукових) операцій, негласних слідчих (розшукових) дій та інших юридичних процедур, які здатні забезпечити подання суду належних і допустимих доказів</t>
   </si>
   <si>
     <t>На яких показаннях суд відповідно до КПК України може обґрунтовувати свої висновки?</t>
@@ -16259,13 +16259,13 @@
     <t>Наданих безпосередньо під час судового засідання</t>
   </si>
   <si>
+    <t>Наданих безпосередньо під час першого судового засідання</t>
+  </si>
+  <si>
     <t>Наданих опосередковано під час судового засідання</t>
   </si>
   <si>
-    <t>Наданих безпосередньо під час підготовчого засідання</t>
-  </si>
-  <si>
-    <t>Наданих письмово під час судового засідання</t>
+    <t>Наданих безпосередньо під час попереднього судового засідання</t>
   </si>
   <si>
     <t>Які показання відповідно до КПК України є показаннями з чужих слів?</t>
@@ -16274,13 +16274,13 @@
     <t>Висловлювання, здійснене в усній, письмовій або іншій формі, щодо певного факту, яке ґрунтується на поясненні іншої особи</t>
   </si>
   <si>
-    <t>висловлювання, зроблене в письмовій формі, але не підтверджене</t>
-  </si>
-  <si>
-    <t>твердження, засноване на чутках, без підтвердження</t>
-  </si>
-  <si>
-    <t>інформація, отримана в усній формі, без документального підтвердження</t>
+    <t>Висловлювання, здійснене в усній, письмовій або іншій формі, щодо певного факту, яке ґрунтується на думці іншої особи</t>
+  </si>
+  <si>
+    <t>Пояснення, здійснене в усній, письмовій або іншій формі, щодо певного факту, яке базується на даних іншої особи</t>
+  </si>
+  <si>
+    <t>Висловлювання, висловлене в усній, письмовій або іншій формі, що стосується певного факту, яке базується на свідченнях іншої особи</t>
   </si>
   <si>
     <t>У якому випадку показання з чужих слів відповідно до КПК України не можуть бути визнані допустимими доказами?</t>
@@ -16289,13 +16289,13 @@
     <t>Якщо вони надані співробітником оперативного підрозділу або іншою особою стосовно пояснень осіб, наданих слідчому, прокурору або співробітнику оперативного підрозділу під час здійснення ними кримінального провадження</t>
   </si>
   <si>
-    <t>якщо вони надані журналістом, який не є учасником процесу</t>
-  </si>
-  <si>
-    <t>коли їх надає свідок, що не був офіційно опитаний</t>
-  </si>
-  <si>
-    <t>якщо вони базуються на чутках, які не підтверджені документально</t>
+    <t>Якщо вони надані адвокатом або іншою особою стосовно пояснень осіб, наданих слідчому, прокурору або адвокату під час здійснення ними цивільного провадження</t>
+  </si>
+  <si>
+    <t>Якщо вони надані співробітником слідчого підрозділу або іншою особою стосовно пояснень осіб, наданих судді, прокурору або співробітнику оперативного підрозділу під час здійснення ними кримінального провадження</t>
+  </si>
+  <si>
+    <t>Якщо вони надані співробітником оперативного підрозділу або іншою особою стосовно пояснень осіб, наданих слідчому, судді або співробітнику оперативного підрозділу під час здійснення ними цивільного провадження</t>
   </si>
   <si>
     <t>Що відповідно до КПК України є речовими доказами?</t>
@@ -16304,13 +16304,13 @@
     <t>Гроші, цінності та інші речі отримані юридичною особою внаслідок вчинення кримінального правопорушення</t>
   </si>
   <si>
-    <t>документи, складені адвокатом під час консультації</t>
-  </si>
-  <si>
-    <t>предмети, що належать свідку, але не мають доказового значення</t>
-  </si>
-  <si>
-    <t>особисті речі, які не мають відношення до правопорушення</t>
+    <t>Гроші, цінності та інші речі отримані фізичною особою внаслідок вчинення адміністративного правопорушення</t>
+  </si>
+  <si>
+    <t>Гроші, цінності та інші речі отримані юридичною особою внаслідок вчинення правопорушення</t>
+  </si>
+  <si>
+    <t>Гроші, цінності та інші речі отримані юридичною особою внаслідок здійснення адміністративного правопорушення</t>
   </si>
   <si>
     <t>Ким і коли вирішується питання про спеціальну конфіскацію та долю речових доказів і документів, які були надані суду?</t>
@@ -16319,13 +16319,13 @@
     <t>Судом під час ухвалення судового рішення, яким закінчується кримінальне провадження</t>
   </si>
   <si>
-    <t>прокурором під час досудового розслідування, коли справа ще не завершена</t>
-  </si>
-  <si>
-    <t>слідчим на етапі підготовки матеріалів до суду</t>
-  </si>
-  <si>
-    <t>адвокатом під час обговорення стратегії захисту з клієнтом</t>
+    <t>Прокурором під час ухвалення судового рішення, яким закінчується кримінальне провадження</t>
+  </si>
+  <si>
+    <t>Судом під час розгляду справи, яким закінчується кримінальне провадження</t>
+  </si>
+  <si>
+    <t>Судом під час ухвалення судового рішення, яким завершується адміністративне провадження</t>
   </si>
   <si>
     <t>Як вирішується питання про спеціальну конфіскацію та долю речових доказів і документів у разі закриття кримінального провадження слідчим або прокурором?</t>
@@ -21902,19 +21902,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21923,7 +21923,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -22047,11 +22047,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22407,8 +22408,8 @@
   <sheetPr/>
   <dimension ref="A1:F1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1129" workbookViewId="0">
-      <selection activeCell="N1136" sqref="N1136"/>
+    <sheetView tabSelected="1" topLeftCell="A1123" workbookViewId="0">
+      <selection activeCell="J1135" sqref="J1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -45074,122 +45075,122 @@
       </c>
     </row>
     <row r="1134" spans="1:6">
-      <c r="A1134">
+      <c r="A1134" s="2">
         <v>1133</v>
       </c>
-      <c r="B1134" t="s">
+      <c r="B1134" s="2" t="s">
         <v>5403</v>
       </c>
-      <c r="C1134" t="s">
+      <c r="C1134" s="2" t="s">
         <v>5404</v>
       </c>
-      <c r="D1134" t="s">
+      <c r="D1134" s="2" t="s">
         <v>5405</v>
       </c>
-      <c r="E1134" t="s">
+      <c r="E1134" s="2" t="s">
         <v>5406</v>
       </c>
-      <c r="F1134" t="s">
+      <c r="F1134" s="2" t="s">
         <v>5407</v>
       </c>
     </row>
     <row r="1135" spans="1:6">
-      <c r="A1135">
+      <c r="A1135" s="2">
         <v>1134</v>
       </c>
-      <c r="B1135" t="s">
+      <c r="B1135" s="2" t="s">
         <v>5408</v>
       </c>
-      <c r="C1135" t="s">
+      <c r="C1135" s="2" t="s">
         <v>5409</v>
       </c>
-      <c r="D1135" t="s">
+      <c r="D1135" s="2" t="s">
         <v>5410</v>
       </c>
-      <c r="E1135" t="s">
+      <c r="E1135" s="2" t="s">
         <v>5411</v>
       </c>
-      <c r="F1135" t="s">
+      <c r="F1135" s="2" t="s">
         <v>5412</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
-      <c r="A1136">
+      <c r="A1136" s="2">
         <v>1135</v>
       </c>
-      <c r="B1136" t="s">
+      <c r="B1136" s="2" t="s">
         <v>5413</v>
       </c>
-      <c r="C1136" t="s">
+      <c r="C1136" s="2" t="s">
         <v>5414</v>
       </c>
-      <c r="D1136" t="s">
+      <c r="D1136" s="2" t="s">
         <v>5415</v>
       </c>
-      <c r="E1136" t="s">
+      <c r="E1136" s="2" t="s">
         <v>5416</v>
       </c>
-      <c r="F1136" t="s">
+      <c r="F1136" s="2" t="s">
         <v>5417</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
-      <c r="A1137">
+      <c r="A1137" s="2">
         <v>1136</v>
       </c>
-      <c r="B1137" t="s">
+      <c r="B1137" s="2" t="s">
         <v>5418</v>
       </c>
-      <c r="C1137" t="s">
+      <c r="C1137" s="2" t="s">
         <v>5419</v>
       </c>
-      <c r="D1137" t="s">
+      <c r="D1137" s="2" t="s">
         <v>5420</v>
       </c>
-      <c r="E1137" t="s">
+      <c r="E1137" s="2" t="s">
         <v>5421</v>
       </c>
-      <c r="F1137" t="s">
+      <c r="F1137" s="2" t="s">
         <v>5422</v>
       </c>
     </row>
     <row r="1138" spans="1:6">
-      <c r="A1138">
+      <c r="A1138" s="2">
         <v>1137</v>
       </c>
-      <c r="B1138" t="s">
+      <c r="B1138" s="2" t="s">
         <v>5423</v>
       </c>
-      <c r="C1138" t="s">
+      <c r="C1138" s="2" t="s">
         <v>5424</v>
       </c>
-      <c r="D1138" t="s">
+      <c r="D1138" s="2" t="s">
         <v>5425</v>
       </c>
-      <c r="E1138" t="s">
+      <c r="E1138" s="2" t="s">
         <v>5426</v>
       </c>
-      <c r="F1138" t="s">
+      <c r="F1138" s="2" t="s">
         <v>5427</v>
       </c>
     </row>
     <row r="1139" spans="1:6">
-      <c r="A1139">
+      <c r="A1139" s="2">
         <v>1138</v>
       </c>
-      <c r="B1139" t="s">
+      <c r="B1139" s="2" t="s">
         <v>5428</v>
       </c>
-      <c r="C1139" t="s">
+      <c r="C1139" s="2" t="s">
         <v>5429</v>
       </c>
-      <c r="D1139" t="s">
+      <c r="D1139" s="2" t="s">
         <v>5430</v>
       </c>
-      <c r="E1139" t="s">
+      <c r="E1139" s="2" t="s">
         <v>5431</v>
       </c>
-      <c r="F1139" t="s">
+      <c r="F1139" s="2" t="s">
         <v>5432</v>
       </c>
     </row>
